--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H2">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I2">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J2">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>8.563298429598888</v>
+        <v>0.1581739543142222</v>
       </c>
       <c r="R2">
-        <v>77.06968586638999</v>
+        <v>1.423565588828</v>
       </c>
       <c r="S2">
-        <v>0.02557502895390366</v>
+        <v>0.0004715123860101775</v>
       </c>
       <c r="T2">
-        <v>0.02557502895390366</v>
+        <v>0.0004715123860101776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H3">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I3">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J3">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
-        <v>50.69630386371</v>
+        <v>1.010958748908</v>
       </c>
       <c r="R3">
-        <v>456.26673477339</v>
+        <v>9.098628740172</v>
       </c>
       <c r="S3">
-        <v>0.151408881732855</v>
+        <v>0.003013641366697592</v>
       </c>
       <c r="T3">
-        <v>0.151408881732855</v>
+        <v>0.003013641366697592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.270036666666666</v>
+        <v>0.06520933333333333</v>
       </c>
       <c r="H4">
-        <v>9.81011</v>
+        <v>0.195628</v>
       </c>
       <c r="I4">
-        <v>0.359406393324744</v>
+        <v>0.007116089623850998</v>
       </c>
       <c r="J4">
-        <v>0.3594063933247441</v>
+        <v>0.007116089623850999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>61.08060178203444</v>
+        <v>1.218036899220889</v>
       </c>
       <c r="R4">
-        <v>549.72541603831</v>
+        <v>10.962332092988</v>
       </c>
       <c r="S4">
-        <v>0.1824224826379853</v>
+        <v>0.003630935871143228</v>
       </c>
       <c r="T4">
-        <v>0.1824224826379854</v>
+        <v>0.003630935871143229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H5">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I5">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J5">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>15.26292889591633</v>
+        <v>7.93191102990111</v>
       </c>
       <c r="R5">
-        <v>137.366360063247</v>
+        <v>71.38719926911</v>
       </c>
       <c r="S5">
-        <v>0.04558405287910973</v>
+        <v>0.02364481757786361</v>
       </c>
       <c r="T5">
-        <v>0.04558405287910973</v>
+        <v>0.02364481757786362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.828401</v>
+        <v>3.270036666666666</v>
       </c>
       <c r="H6">
-        <v>17.485203</v>
+        <v>9.81011</v>
       </c>
       <c r="I6">
-        <v>0.6405936066752559</v>
+        <v>0.3568488252184601</v>
       </c>
       <c r="J6">
-        <v>0.640593606675256</v>
+        <v>0.3568488252184602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
-        <v>90.35935014048302</v>
+        <v>50.69630386371</v>
       </c>
       <c r="R6">
-        <v>813.2341512643471</v>
+        <v>456.26673477339</v>
       </c>
       <c r="S6">
-        <v>0.2698659885670968</v>
+        <v>0.1511243447147326</v>
       </c>
       <c r="T6">
-        <v>0.2698659885670969</v>
+        <v>0.1511243447147327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.270036666666666</v>
+      </c>
+      <c r="H7">
+        <v>9.81011</v>
+      </c>
+      <c r="I7">
+        <v>0.3568488252184601</v>
+      </c>
+      <c r="J7">
+        <v>0.3568488252184602</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.67887366666667</v>
+      </c>
+      <c r="N7">
+        <v>56.03662100000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="P7">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="Q7">
+        <v>61.08060178203446</v>
+      </c>
+      <c r="R7">
+        <v>549.7254160383101</v>
+      </c>
+      <c r="S7">
+        <v>0.1820796629258639</v>
+      </c>
+      <c r="T7">
+        <v>0.1820796629258639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.828401</v>
+      </c>
+      <c r="H8">
+        <v>17.485203</v>
+      </c>
+      <c r="I8">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J8">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.425633666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.276901000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.0662600404061536</v>
+      </c>
+      <c r="P8">
+        <v>0.06626004040615362</v>
+      </c>
+      <c r="Q8">
+        <v>14.13756568843367</v>
+      </c>
+      <c r="R8">
+        <v>127.238091195903</v>
+      </c>
+      <c r="S8">
+        <v>0.04214371044227981</v>
+      </c>
+      <c r="T8">
+        <v>0.04214371044227982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>5.828401</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>17.485203</v>
       </c>
-      <c r="I7">
-        <v>0.6405936066752559</v>
-      </c>
-      <c r="J7">
-        <v>0.640593606675256</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.67887366666666</v>
-      </c>
-      <c r="N7">
-        <v>56.036621</v>
-      </c>
-      <c r="O7">
-        <v>0.5075660478670347</v>
-      </c>
-      <c r="P7">
-        <v>0.5075660478670347</v>
-      </c>
-      <c r="Q7">
+      <c r="I9">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J9">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.503283</v>
+      </c>
+      <c r="N9">
+        <v>46.509849</v>
+      </c>
+      <c r="O9">
+        <v>0.4234968256437875</v>
+      </c>
+      <c r="P9">
+        <v>0.4234968256437876</v>
+      </c>
+      <c r="Q9">
+        <v>90.35935014048302</v>
+      </c>
+      <c r="R9">
+        <v>813.2341512643471</v>
+      </c>
+      <c r="S9">
+        <v>0.2693588395623573</v>
+      </c>
+      <c r="T9">
+        <v>0.2693588395623574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.828401</v>
+      </c>
+      <c r="H10">
+        <v>17.485203</v>
+      </c>
+      <c r="I10">
+        <v>0.6360350851576888</v>
+      </c>
+      <c r="J10">
+        <v>0.6360350851576889</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.67887366666667</v>
+      </c>
+      <c r="N10">
+        <v>56.03662100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="P10">
+        <v>0.5102431339500588</v>
+      </c>
+      <c r="Q10">
         <v>108.8679659576737</v>
       </c>
-      <c r="R7">
-        <v>979.811693619063</v>
-      </c>
-      <c r="S7">
-        <v>0.3251435652290494</v>
-      </c>
-      <c r="T7">
-        <v>0.3251435652290494</v>
+      <c r="R10">
+        <v>979.8116936190632</v>
+      </c>
+      <c r="S10">
+        <v>0.3245325351530517</v>
+      </c>
+      <c r="T10">
+        <v>0.3245325351530517</v>
       </c>
     </row>
   </sheetData>
